--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Calr-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Calr-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>72.79331566666667</v>
+        <v>36.40130033333333</v>
       </c>
       <c r="H2">
-        <v>218.379947</v>
+        <v>109.203901</v>
       </c>
       <c r="I2">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="J2">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N2">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q2">
-        <v>1249.608637191304</v>
+        <v>73.78963405897177</v>
       </c>
       <c r="R2">
-        <v>11246.47773472173</v>
+        <v>664.106706530746</v>
       </c>
       <c r="S2">
-        <v>0.01585072338666649</v>
+        <v>0.001251603588456957</v>
       </c>
       <c r="T2">
-        <v>0.01585072338666649</v>
+        <v>0.001251603588456957</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>72.79331566666667</v>
+        <v>36.40130033333333</v>
       </c>
       <c r="H3">
-        <v>218.379947</v>
+        <v>109.203901</v>
       </c>
       <c r="I3">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="J3">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q3">
-        <v>18667.43126904838</v>
+        <v>9334.9061772117</v>
       </c>
       <c r="R3">
-        <v>168006.8814214354</v>
+        <v>84014.15559490531</v>
       </c>
       <c r="S3">
-        <v>0.2367879675114602</v>
+        <v>0.1583366311312751</v>
       </c>
       <c r="T3">
-        <v>0.2367879675114602</v>
+        <v>0.1583366311312751</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>72.79331566666667</v>
+        <v>36.40130033333333</v>
       </c>
       <c r="H4">
-        <v>218.379947</v>
+        <v>109.203901</v>
       </c>
       <c r="I4">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="J4">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N4">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q4">
-        <v>2383.645413840356</v>
+        <v>1777.849178892122</v>
       </c>
       <c r="R4">
-        <v>21452.8087245632</v>
+        <v>16000.6426100291</v>
       </c>
       <c r="S4">
-        <v>0.03023546971602397</v>
+        <v>0.03015548783259059</v>
       </c>
       <c r="T4">
-        <v>0.03023546971602397</v>
+        <v>0.03015548783259058</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>351.510254</v>
       </c>
       <c r="I5">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="J5">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N5">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q5">
-        <v>2011.403773532874</v>
+        <v>237.5172752357649</v>
       </c>
       <c r="R5">
-        <v>18102.63396179586</v>
+        <v>2137.655477121884</v>
       </c>
       <c r="S5">
-        <v>0.02551375197343956</v>
+        <v>0.00402871592733502</v>
       </c>
       <c r="T5">
-        <v>0.02551375197343956</v>
+        <v>0.004028715927335019</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>351.510254</v>
       </c>
       <c r="I6">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="J6">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q6">
-        <v>30047.60096819118</v>
+        <v>30047.60096819119</v>
       </c>
       <c r="R6">
-        <v>270428.4087137206</v>
+        <v>270428.4087137207</v>
       </c>
       <c r="S6">
-        <v>0.3811403004145665</v>
+        <v>0.5096608172125537</v>
       </c>
       <c r="T6">
-        <v>0.3811403004145665</v>
+        <v>0.5096608172125536</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>351.510254</v>
       </c>
       <c r="I7">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="J7">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N7">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q7">
-        <v>3836.77996251624</v>
+        <v>5722.618063305828</v>
       </c>
       <c r="R7">
-        <v>34531.01966264616</v>
+        <v>51503.56256975244</v>
       </c>
       <c r="S7">
-        <v>0.04866782772728162</v>
+        <v>0.09706579243472109</v>
       </c>
       <c r="T7">
-        <v>0.04866782772728162</v>
+        <v>0.09706579243472105</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>67.37122333333333</v>
+        <v>38.27317166666666</v>
       </c>
       <c r="H8">
-        <v>202.11367</v>
+        <v>114.819515</v>
       </c>
       <c r="I8">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="J8">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N8">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q8">
-        <v>1156.530126488367</v>
+        <v>77.58413314079887</v>
       </c>
       <c r="R8">
-        <v>10408.7711383953</v>
+        <v>698.25719826719</v>
       </c>
       <c r="S8">
-        <v>0.01467006435272188</v>
+        <v>0.001315965049626638</v>
       </c>
       <c r="T8">
-        <v>0.01467006435272188</v>
+        <v>0.001315965049626638</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>67.37122333333333</v>
+        <v>38.27317166666666</v>
       </c>
       <c r="H9">
-        <v>202.11367</v>
+        <v>114.819515</v>
       </c>
       <c r="I9">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="J9">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q9">
-        <v>17276.96656717352</v>
+        <v>9814.936920961747</v>
       </c>
       <c r="R9">
-        <v>155492.6991045617</v>
+        <v>88334.43228865573</v>
       </c>
       <c r="S9">
-        <v>0.2191505483128539</v>
+        <v>0.1664788073205087</v>
       </c>
       <c r="T9">
-        <v>0.2191505483128539</v>
+        <v>0.1664788073205087</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>67.37122333333333</v>
+        <v>38.27317166666666</v>
       </c>
       <c r="H10">
-        <v>202.11367</v>
+        <v>114.819515</v>
       </c>
       <c r="I10">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="J10">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N10">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q10">
-        <v>2206.096892998802</v>
+        <v>1869.27187210594</v>
       </c>
       <c r="R10">
-        <v>19854.87203698922</v>
+        <v>16823.44684895346</v>
       </c>
       <c r="S10">
-        <v>0.02798334660498595</v>
+        <v>0.03170617950293234</v>
       </c>
       <c r="T10">
-        <v>0.02798334660498595</v>
+        <v>0.03170617950293234</v>
       </c>
     </row>
   </sheetData>
